--- a/Materials/Template.xlsx
+++ b/Materials/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocs-Hands-on\HelloDioDocs\HelloDioDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocs-Hands-on\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0194F1C-1DA9-4EFA-9A92-71ED828240D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76E69C-B65A-419F-8F66-E36EE62DF42D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="3210" windowWidth="12000" windowHeight="13665" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
+    <workbookView xWindow="17760" yWindow="3765" windowWidth="11535" windowHeight="13185" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
   </bookViews>
   <sheets>
     <sheet name="{{Invoice.SalesOrderID}}" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>請　求　書</t>
     <rPh sb="0" eb="1">
@@ -227,64 +227,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{{Invoice.CustomerAddress}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Invoice.StoreName}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.CustomerPerson}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.InvitationDay}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.DueDate}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.TaxAmt}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.TotalDue}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.ProductName}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.UnitPrice}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.OrderQty}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.UnitPriceDiscount}}</t>
-  </si>
-  <si>
-    <t>{{=Invoice.UnitPrice*Invoice.OrderQty*(1-E13)}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{=SUM(F13)}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Invoice.PostalCode}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{==(ROW()-12)(C=B13)}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送料</t>
     <rPh sb="0" eb="2">
       <t>ソウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Invoice.Freight}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,32 +482,11 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,7 +803,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" activeCellId="2" sqref="C13 F13:F16 F18"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -905,34 +830,24 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="E3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>32</v>
-      </c>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -946,9 +861,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1006,48 +919,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F17" s="9"/>
@@ -1056,9 +951,7 @@
       <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="F19" s="9"/>

--- a/Materials/Template.xlsx
+++ b/Materials/Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocs-Hands-on\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76E69C-B65A-419F-8F66-E36EE62DF42D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66D9E2-6EB8-4C8B-B234-5C9AA5BE0873}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="3765" windowWidth="11535" windowHeight="13185" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
+    <workbookView xWindow="18105" yWindow="4110" windowWidth="11535" windowHeight="13185" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
   </bookViews>
   <sheets>
-    <sheet name="{{Invoice.SalesOrderID}}" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'{{Invoice.SalesOrderID}}'!$A$1:$F$22</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'{{Invoice.SalesOrderID}}'!$12:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$12:$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>

--- a/Materials/Template.xlsx
+++ b/Materials/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocs-Hands-on\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66D9E2-6EB8-4C8B-B234-5C9AA5BE0873}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368820E-1367-40A6-84BB-5FDC55AB199F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18105" yWindow="4110" windowWidth="11535" windowHeight="13185" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
+    <workbookView xWindow="18450" yWindow="4455" windowWidth="11535" windowHeight="13185" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,11 +977,6 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A13:F13">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD($A13,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" xr:uid="{1DD8A89D-E4BA-4FC6-A2D5-62C3D77940E7}"/>
   </hyperlinks>
